--- a/data/processed/X_test_sin_outliers_norm.xlsx
+++ b/data/processed/X_test_sin_outliers_norm.xlsx
@@ -477,4006 +477,4006 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6916324712631815</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7463785443175232</v>
+        <v>0.3965994865420545</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08504602267095251</v>
+        <v>-0.6226179180344977</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8955641723725816</v>
+        <v>2.334594069586803</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9210307621695745</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8171097564727196</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G2" t="n">
-        <v>1.243689054426068</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H2" t="n">
-        <v>0.275946789335249</v>
+        <v>-1.18603652345805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2951485578066312</v>
+        <v>-0.4935811221962447</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.084743832136675</v>
+        <v>-0.7704012774796098</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.046838017802247</v>
+        <v>1.291332964254709</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3038028593778867</v>
+        <v>1.486613600526191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7522648048798218</v>
+        <v>-0.1458144360134951</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5189205619179259</v>
+        <v>-1.34047646098091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5286616015977191</v>
+        <v>1.274485946780398</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4240714110954575</v>
+        <v>-1.161216578749969</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.049293555205267</v>
+        <v>-1.118747767600231</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.046838017802247</v>
+        <v>0.769702411588662</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4887365427998823</v>
+        <v>-1.128804023322178</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.02155341767583231</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1814156061144948</v>
+        <v>-1.101796557536491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.301779507693632</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4563021244176641</v>
+        <v>1.636493905856114</v>
       </c>
       <c r="C5" t="n">
-        <v>1.425135774607054</v>
+        <v>-0.327051199144274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.100945094573788</v>
+        <v>-0.01274341741040836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6640480421859635</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.3943364726888208</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.9979416528519938</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.067555247298374</v>
+        <v>-0.3576768585627134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9967059894784066</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4783885619263264</v>
+        <v>1.096027107693575</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8649521151619419</v>
+        <v>-0.7879945345564088</v>
       </c>
       <c r="D6" t="n">
-        <v>1.513601232882754</v>
+        <v>1.726025091476415</v>
       </c>
       <c r="E6" t="n">
-        <v>1.384538407802117</v>
+        <v>1.062491823685915</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3100487798347357</v>
+        <v>-1.045636580255451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6916324712631815</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5852249777064904</v>
+        <v>-0.7161262743808195</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4608189581438837</v>
+        <v>0.15148539334466</v>
       </c>
       <c r="D7" t="n">
-        <v>1.955056276104306</v>
+        <v>-0.09968184285474951</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0876557496930406</v>
+        <v>-0.7753692092886149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7522648048798218</v>
+        <v>-0.08368392684466372</v>
       </c>
       <c r="G7" t="n">
-        <v>1.243689054426068</v>
+        <v>-0.2045902903289153</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8047720590740159</v>
+        <v>-0.7507966995299921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.616607804017101</v>
+        <v>-1.097632249554376</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4643639858370245</v>
+        <v>-1.013188225139437</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9585470091579368</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.641521127785728</v>
+        <v>-0.9167431349020402</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1555645174207464</v>
+        <v>-0.2700754543511579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0126387723435843</v>
+        <v>-0.225687341963668</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.667843391326163</v>
+        <v>0.06352297104508554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1339949911955984</v>
+        <v>-0.1438673116204843</v>
       </c>
       <c r="C9" t="n">
-        <v>1.69455787928576</v>
+        <v>-0.4959464670815447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.983855181016892</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.578158603086728</v>
+        <v>1.345239674912765</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.08368392684466372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.02526535143351654</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2473616396196396</v>
+        <v>-0.9894766029744111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08148543483273119</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B10" t="n">
-        <v>1.058541401726045</v>
+        <v>-0.7161262743808195</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4111885704399116</v>
+        <v>-0.8126250944639274</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3658181205067191</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0876557496930406</v>
+        <v>0.3556221956187878</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5577299501011287</v>
+        <v>-0.3322059635199893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5525731065902878</v>
+        <v>-0.2362358677810444</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1099527318254724</v>
+        <v>-1.27027648937961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3865589530479563</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8329264084705986</v>
+        <v>-0.7797106035764123</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.836591893616815</v>
+        <v>0.5139064891267201</v>
       </c>
       <c r="D11" t="n">
-        <v>2.83796636254741</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5199499690627328</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.9725347290254702</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.2806418972703989</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2330690647618359</v>
+        <v>0.6391627381757427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.911926544124082</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3273792711288378</v>
+        <v>-0.8432949327720052</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.109559025988661</v>
+        <v>-0.2953833364060357</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6306911464396503</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05644232343019013</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4280400469153331</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.6530705764220435</v>
+        <v>0.765522687058083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9967059894784066</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B13" t="n">
-        <v>1.864309234781209</v>
+        <v>0.1740543343574797</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.028023389046421</v>
+        <v>1.231711377860121</v>
       </c>
       <c r="D13" t="n">
-        <v>2.396511319325858</v>
+        <v>-0.8821276718538199</v>
       </c>
       <c r="E13" t="n">
-        <v>1.744783590610194</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6874198532869241</v>
+        <v>1.034665238194302</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.440979737181802</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3045319390508585</v>
+        <v>0.5689627665744429</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8651571217928052</v>
+        <v>-1.161216578749969</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.077653776750394</v>
+        <v>1.675061456195457</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7769326890463438</v>
+        <v>-0.4219343952550516</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4280400469153331</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G14" t="n">
-        <v>2.625920950097629</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1671230312566906</v>
+        <v>1.032282579143022</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3865589530479563</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8108399709619364</v>
+        <v>0.3965994865420545</v>
       </c>
       <c r="C15" t="n">
-        <v>1.924984679339915</v>
+        <v>-0.3587190618825123</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8955641723725816</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2317538228162713</v>
+        <v>-0.9167431349020402</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1555645174207464</v>
+        <v>-0.02155341767583231</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08454940782082232</v>
+        <v>2.29541032838929</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2187764899040312</v>
+        <v>-0.8209966711312918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.068685677539589</v>
+        <v>-1.701683376912508</v>
       </c>
       <c r="C16" t="n">
-        <v>1.106083282224377</v>
+        <v>-0.9392965454168806</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9585470091579368</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9210307621695745</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3631950953224354</v>
+        <v>0.7240126923501445</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6352824287524599</v>
+        <v>-0.07800798052039852</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5244374027018032</v>
+        <v>-1.017556591614931</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1238507153820542</v>
+        <v>-0.0802829824248915</v>
       </c>
       <c r="C17" t="n">
-        <v>1.800908710079985</v>
+        <v>1.330233617490196</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4288009572920744</v>
+        <v>2.89969383497502</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.497423054662497</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F17" t="n">
-        <v>1.271024417623004</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9953192606725846</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1758987653306171</v>
+        <v>-1.775716284908968</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.223588083382494</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.197608530828415</v>
+        <v>0.4283916511398509</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6628855366529127</v>
+        <v>0.8200291622630237</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4288009572920744</v>
+        <v>2.508470920475485</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0876557496930406</v>
+        <v>-1.199490986128891</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7522648048798218</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7333091847849934</v>
+        <v>-0.7788766881705118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3865589530479563</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.133147104184002</v>
+        <v>0.3012229927486653</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3190178504182493</v>
+        <v>-0.9076286826786423</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.781964991869316</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2005403965534209</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4928849985082309</v>
+        <v>1.221056765700796</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.04135466108108604</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2671710552613221</v>
+        <v>0.2881628801692439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.08148543483273119</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B20" t="n">
-        <v>1.993232088070035</v>
+        <v>-0.5571654513918375</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8578620597756601</v>
+        <v>0.9431819618006168</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2775271118624087</v>
+        <v>0.6827639861443209</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.578158603086728</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.1458144360134951</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.871359343043477</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5244374027018032</v>
+        <v>-0.3295968699221936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.138808638028169</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6073114152151526</v>
+        <v>1.541117412062725</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.08150099497781166</v>
+        <v>-0.1792678396991619</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.781964991869316</v>
+        <v>0.8566408370330032</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4166875062382669</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3631950953224354</v>
+        <v>0.6618821831813132</v>
       </c>
       <c r="G21" t="n">
-        <v>0.595767853330024</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H21" t="n">
-        <v>1.505108227106436</v>
+        <v>1.650042329234459</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3865589530479563</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.5529942643842838</v>
+        <v>-0.4299967930006519</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.067018693670971</v>
+        <v>-0.4783532100047457</v>
       </c>
       <c r="D22" t="n">
-        <v>1.337019215594133</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2317538228162713</v>
+        <v>-1.340864911742316</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.3512296373371561</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.1096535579725277</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.4672671032705848</v>
+        <v>0.03544298240456525</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.068685677539589</v>
+        <v>-0.0802829824248915</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3154728227251085</v>
+        <v>-0.6120619637884183</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5199499690627328</v>
+        <v>-1.906360614196018</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5577299501011287</v>
+        <v>1.655970329882616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0126387723435843</v>
+        <v>-0.1096535579725277</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.009904707820840955</v>
+        <v>0.4566428120123637</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.827147098769758</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4885328377398707</v>
+        <v>1.382156589073743</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9783930013424494</v>
+        <v>-0.09482020573052663</v>
       </c>
       <c r="D24" t="n">
-        <v>1.072146189661202</v>
+        <v>-0.8821276718538199</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0876557496930406</v>
+        <v>1.345239674912765</v>
       </c>
       <c r="F24" t="n">
-        <v>2.178853739923572</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.808061415711405</v>
+        <v>2.581539091185625</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6475537356381662</v>
+        <v>2.569661957211486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.8337351198129442</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.8108399709619364</v>
+        <v>2.367713691605431</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5848949274038139</v>
+        <v>-0.01037257176189116</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.046838017802247</v>
+        <v>0.6827639861443209</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4887365427998823</v>
+        <v>1.345239674912765</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4280400469153331</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1314243258778591</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1616061904728134</v>
+        <v>1.060362567783541</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.911926544124082</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2527735686708804</v>
+        <v>2.11337637482306</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6168001766420815</v>
+        <v>0.8024359051862247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5424001377953399</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3758518959395021</v>
+        <v>0.7797439724590639</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4928849985082309</v>
+        <v>-0.3943364726888208</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5093783598505515</v>
+        <v>1.177266591747392</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5475057116335343</v>
+        <v>-0.03475698919673449</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9967059894784066</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B27" t="n">
-        <v>2.025462801392242</v>
+        <v>-0.1438673116204843</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3509230996565171</v>
+        <v>0.1374107876832207</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7189821550839607</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E27" t="n">
-        <v>0.952244188432425</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8171097564727196</v>
+        <v>0.6618821831813132</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.208912169199522</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4903354122023165</v>
+        <v>-0.2032369210398538</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6916324712631815</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3918406977732509</v>
+        <v>-0.5253732867940412</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8791322259345054</v>
+        <v>0.9044767962316588</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5170919659363848</v>
+        <v>-0.360497119187773</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.7769326890463438</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4280400469153331</v>
+        <v>1.531709311544953</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.240557746651651</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.010384947867156</v>
+        <v>0.203922914247685</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.68191711767311</v>
+        <v>-0.4299967930006519</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.081198804443535</v>
+        <v>-0.6859536435109743</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4288009572920744</v>
+        <v>1.639086666032074</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2317538228162713</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5446342269781328</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3113218282044378</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.796476565046403</v>
+        <v>-0.7367567052097319</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.6174556910286969</v>
+        <v>0.5555603095310365</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.159189413692633</v>
+        <v>-0.1511186283762836</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.8702560005136264</v>
+        <v>-0.6213123955207964</v>
       </c>
       <c r="E30" t="n">
-        <v>1.096342261555656</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F30" t="n">
-        <v>1.011644611251413</v>
+        <v>0.9104042198566388</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4877809864806834</v>
+        <v>0.7025829299654547</v>
       </c>
       <c r="H30" t="n">
-        <v>1.919592897982767</v>
+        <v>-0.5121167960855726</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.223588083382494</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.036454964217382</v>
+        <v>0.8098976263134078</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3439023281990918</v>
+        <v>-0.2777900793292366</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4541091291510295</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2317538228162713</v>
+        <v>0.9918048608792018</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2852544206065419</v>
+        <v>2.090883894064436</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1098269525079909</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.2385859055457132</v>
+        <v>1.48156239739134</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B32" t="n">
-        <v>1.316387108303697</v>
+        <v>-1.320177401738951</v>
       </c>
       <c r="C32" t="n">
-        <v>1.081268088372391</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.6936739832250056</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3758518959395021</v>
+        <v>0.7797439724590639</v>
       </c>
       <c r="F32" t="n">
-        <v>2.308543643109367</v>
+        <v>0.6618821831813132</v>
       </c>
       <c r="G32" t="n">
-        <v>0.271807252782002</v>
+        <v>-0.03581387725089294</v>
       </c>
       <c r="H32" t="n">
-        <v>2.641367928301894</v>
+        <v>0.2741228858489848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.08148543483273119</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8006956951483921</v>
+        <v>0.4283916511398509</v>
       </c>
       <c r="C33" t="n">
-        <v>0.234006469711725</v>
+        <v>-0.3129765934828347</v>
       </c>
       <c r="D33" t="n">
-        <v>2.970402875513876</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5199499690627328</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.345317784038459</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.862920769876858</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9191126579364515</v>
+        <v>1.41136242579004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B34" t="n">
-        <v>2.025462801392242</v>
+        <v>-0.3346202992072627</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6735206197323353</v>
+        <v>-0.0842642514844472</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1639279313591432</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5199499690627328</v>
+        <v>-0.9167431349020402</v>
       </c>
       <c r="F34" t="n">
-        <v>1.206179466030106</v>
+        <v>0.6618821831813132</v>
       </c>
       <c r="G34" t="n">
-        <v>2.183174796015332</v>
+        <v>-0.3100755485026792</v>
       </c>
       <c r="H34" t="n">
-        <v>0.704724035069384</v>
+        <v>-0.3857568472032332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B35" t="n">
-        <v>1.47754067491473</v>
+        <v>0.7781054617156113</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364870303823659</v>
+        <v>-0.7528080204028107</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2522189400034536</v>
+        <v>-0.4474355446321141</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.578158603086728</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03297301675257214</v>
+        <v>-0.6665567336084322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3918406977732509</v>
+        <v>-0.3982046284028555</v>
       </c>
       <c r="C36" t="n">
-        <v>1.386140469982505</v>
+        <v>-0.1651932340377228</v>
       </c>
       <c r="D36" t="n">
-        <v>1.866765267459996</v>
+        <v>-0.6213123955207964</v>
       </c>
       <c r="E36" t="n">
-        <v>1.528636480925348</v>
+        <v>-2.330482391036294</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.1458144360134951</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.4916124136179268</v>
       </c>
       <c r="H36" t="n">
-        <v>1.519400801964241</v>
+        <v>-1.28431648369987</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.606853025908857</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9940799750816315</v>
+        <v>0.3330151573464617</v>
       </c>
       <c r="C37" t="n">
-        <v>1.556301799253266</v>
+        <v>-0.9428151968322404</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01265408592947756</v>
+        <v>2.89969383497502</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5199499690627328</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8819547080656173</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G37" t="n">
-        <v>1.038514007412321</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3045319390508585</v>
+        <v>-0.7648366938502518</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B38" t="n">
-        <v>2.444462074580927</v>
+        <v>-0.2710359700116699</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4289829928344722</v>
+        <v>0.3133433584512113</v>
       </c>
       <c r="D38" t="n">
-        <v>2.573093336614479</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.05644232343019013</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F38" t="n">
-        <v>3.864822481338913</v>
+        <v>0.9104042198566388</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3759948133398809</v>
+        <v>0.1898829199274249</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1.138808638028169</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3918406977732509</v>
+        <v>-0.5571654513918375</v>
       </c>
       <c r="C39" t="n">
-        <v>1.421590746913913</v>
+        <v>0.0001833824841882709</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4541091291510295</v>
+        <v>-0.8821276718538199</v>
       </c>
       <c r="E39" t="n">
-        <v>1.240440334678886</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6225749016940264</v>
+        <v>0.1648381098306619</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.4494183103484212</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06155816646818154</v>
+        <v>-0.6244367506476523</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.522073580554533</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.005072137906772124</v>
+        <v>-1.002255755760987</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6912457581980397</v>
+        <v>-1.298198989783581</v>
       </c>
       <c r="D40" t="n">
-        <v>2.573093336614479</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5199499690627328</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2204094690136442</v>
+        <v>-0.2079449451823265</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.7959963250000884</v>
+        <v>-0.694636722248952</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3172349953152936</v>
+        <v>-1.288385237141155</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.6522504535734901</v>
+        <v>2.259157591145185</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.6053829745806952</v>
+        <v>-0.09968184285474951</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.578158603086728</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.283187274869627</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.1729447128767861</v>
       </c>
       <c r="H41" t="n">
-        <v>1.590863676253263</v>
+        <v>1.972962198600438</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.165377817506209</v>
+        <v>-1.41555389553234</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5246294566204193</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4288009572920744</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.9210307621695745</v>
+        <v>-1.058117060515466</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1038152889508445</v>
+        <v>0.5997516740124818</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2789257681496355</v>
+        <v>-0.1834932386941625</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.6101928518486298</v>
+        <v>0.1477629369666444</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.8337351198129442</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4461578486041198</v>
+        <v>0.2058464989552761</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8260260944662489</v>
+        <v>-0.5311329812351429</v>
       </c>
       <c r="D43" t="n">
-        <v>2.573093336614479</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.209226908416036</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.7674111752844796</v>
+        <v>0.2881628801692439</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3865589530479563</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.3918406977732509</v>
+        <v>-0.7161262743808195</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3261771897333875</v>
+        <v>0.6440965914950332</v>
       </c>
       <c r="D44" t="n">
-        <v>2.396511319325858</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3038028593778867</v>
+        <v>-1.340864911742316</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3631950953224354</v>
+        <v>-0.3322059635199893</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.2173507423661405</v>
       </c>
       <c r="H44" t="n">
-        <v>0.561798286491339</v>
+        <v>-1.07371656889597</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.827147098769758</v>
+        <v>1.882043688490928</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.5529942643842838</v>
+        <v>-0.9386714265653944</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03902994658897771</v>
+        <v>-1.009669573724077</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4541091291510295</v>
+        <v>-0.1866202682990907</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0876557496930406</v>
+        <v>-0.6339952836751895</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.124245306683277</v>
+        <v>-0.8911966427325916</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.6916324712631815</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.9397628242507626</v>
+        <v>1.986207716431875</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.9429427244110408</v>
+        <v>-0.3481631076364328</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4288009572920744</v>
+        <v>0.6827639861443209</v>
       </c>
       <c r="E46" t="n">
-        <v>1.528636480925348</v>
+        <v>0.9211178980724892</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.739306265615186</v>
+        <v>0.4566428120123637</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.223588083382494</v>
+        <v>2.793380301056725</v>
       </c>
       <c r="B47" t="n">
-        <v>1.187464255014871</v>
+        <v>-0.5571654513918375</v>
       </c>
       <c r="C47" t="n">
-        <v>1.40741063614135</v>
+        <v>0.03888854805314619</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.4288009572920744</v>
+        <v>0.4219487098112974</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3758518959395021</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F47" t="n">
-        <v>1.011644611251413</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G47" t="n">
-        <v>1.837616822097442</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.06707500725205875</v>
+        <v>-0.1470769437588142</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.08148543483273119</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3273792711288378</v>
+        <v>-0.7161262743808195</v>
       </c>
       <c r="C48" t="n">
-        <v>2.64462530104751</v>
+        <v>-0.7070655520031331</v>
       </c>
       <c r="D48" t="n">
-        <v>2.043347284748616</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0876557496930406</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F48" t="n">
-        <v>1.724939078773288</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G48" t="n">
-        <v>1.427266728069947</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7190166099271887</v>
+        <v>-1.017556591614931</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3865589530479563</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.8430706842841429</v>
+        <v>-0.4617889575984483</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2977476842594042</v>
+        <v>1.291528451921238</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5170919659363848</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0876557496930406</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8171097564727196</v>
+        <v>0.5997516740124818</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.0907684325576238</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8047720590740159</v>
+        <v>-0.2032369210398538</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.301779507693632</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2951485578066312</v>
+        <v>-0.2392438054138735</v>
       </c>
       <c r="C50" t="n">
-        <v>1.3684153315168</v>
+        <v>-0.7281774604952921</v>
       </c>
       <c r="D50" t="n">
-        <v>2.219929302037237</v>
+        <v>2.85622462225285</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0876557496930406</v>
+        <v>1.20386574929934</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.210480995876419</v>
+        <v>-0.6244367506476523</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.138808638028169</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B51" t="n">
-        <v>1.670924954847969</v>
+        <v>1.382156589073743</v>
       </c>
       <c r="C51" t="n">
-        <v>2.499279165628735</v>
+        <v>0.6229846830028742</v>
       </c>
       <c r="D51" t="n">
-        <v>2.219929302037237</v>
+        <v>1.37827138969905</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5199499690627328</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7522648048798218</v>
+        <v>0.3512296373371561</v>
       </c>
       <c r="G51" t="n">
-        <v>2.053590555796123</v>
+        <v>0.9979416528519938</v>
       </c>
       <c r="H51" t="n">
-        <v>2.062518646560811</v>
+        <v>0.1898829199274249</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8753013976063495</v>
+        <v>1.922623387236282</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.084743832136675</v>
+        <v>-0.383349621790031</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.046838017802247</v>
+        <v>-0.360497119187773</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4166875062382669</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1038152889508445</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.05326267244057</v>
+        <v>-0.2453569040006337</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.606853025908857</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7684649818261855</v>
+        <v>0.2058464989552761</v>
       </c>
       <c r="C53" t="n">
-        <v>1.123808420690081</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D53" t="n">
-        <v>1.778474258815685</v>
+        <v>-0.1866202682990907</v>
       </c>
       <c r="E53" t="n">
-        <v>1.240440334678886</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8819547080656173</v>
+        <v>1.034665238194302</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9737218873027165</v>
+        <v>1.145621014295263</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.2528784804035173</v>
+        <v>1.551762368992639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.522073580554533</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6073114152151526</v>
+        <v>0.6191446387266294</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2623666912568519</v>
+        <v>-0.8759608199404041</v>
       </c>
       <c r="D54" t="n">
-        <v>2.219929302037237</v>
+        <v>-0.360497119187773</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8081461153091942</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F54" t="n">
-        <v>1.465559272401697</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G54" t="n">
-        <v>2.627270785933246</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H54" t="n">
-        <v>1.019160681941083</v>
+        <v>1.4254024201103</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4139271352819133</v>
+        <v>1.159611436889168</v>
       </c>
       <c r="C55" t="n">
-        <v>0.311997078960824</v>
+        <v>-0.5592821925580214</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8702560005136264</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.05644232343019013</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.4564669818576522</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.808061415711405</v>
+        <v>2.581539091185625</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.4529745284127806</v>
+        <v>-0.1470769437588142</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-1.138808638028169</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5750807018929461</v>
+        <v>-0.1756594762182807</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8755871982413644</v>
+        <v>0.03185124522242657</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.046838017802247</v>
+        <v>0.3350102843669562</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6328346159231131</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.2204094690136442</v>
+        <v>-0.5185974910264836</v>
       </c>
       <c r="G56" t="n">
-        <v>1.459662788124749</v>
+        <v>0.1435110616445058</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.424869618743486</v>
+        <v>-1.424716426902469</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.223588083382494</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.519915664050481</v>
+        <v>0.4919759803354437</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.5707148166312505</v>
+        <v>-0.2214916566834796</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.8702560005136264</v>
+        <v>0.5088871352556386</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2005403965534209</v>
+        <v>1.345239674912765</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4928849985082309</v>
+        <v>1.283187274869627</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3221205148893718</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.3386339295503445</v>
+        <v>-0.03475698919673449</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.3865589530479563</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B58" t="n">
-        <v>1.187464255014871</v>
+        <v>-0.2074516408160771</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.8755871982413644</v>
+        <v>0.2640822386361739</v>
       </c>
       <c r="D58" t="n">
-        <v>2.66138434525879</v>
+        <v>-0.09968184285474951</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.05644232343019013</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.5997516740124818</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.2384477940008933</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.3243413546925398</v>
+        <v>0.3302828631300244</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.223588083382494</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.326531384117241</v>
+        <v>-1.51093038932573</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.9925731121150129</v>
+        <v>-0.5663194953887409</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.9585470091579368</v>
+        <v>-0.8821276718538199</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.578158603086728</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.475490655674819</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.2995270226853028</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.67546991880138</v>
+        <v>-0.3576768585627134</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5286616015977191</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.005072137906772124</v>
+        <v>-0.0484908178270951</v>
       </c>
       <c r="C60" t="n">
-        <v>1.53148660540128</v>
+        <v>0.9818871273695746</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.8702560005136264</v>
+        <v>1.291332964254709</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.05644232343019013</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7522648048798218</v>
+        <v>0.1027076006618305</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2178138193573316</v>
+        <v>-0.1834932386941625</v>
       </c>
       <c r="H60" t="n">
-        <v>1.004868107083279</v>
+        <v>-1.607236353065849</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3865589530479563</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B61" t="n">
-        <v>1.509771388236937</v>
+        <v>-0.6207497805874304</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.130829192147506</v>
+        <v>0.1479667419293001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7189821550839607</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4887365427998823</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.593839820713784</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.04857432928811822</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1187284658993993</v>
+        <v>1.172682522345621</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.301779507693632</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B62" t="n">
-        <v>1.058541401726045</v>
+        <v>0.7463132971178149</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.03896066266012129</v>
+        <v>0.6440965914950332</v>
       </c>
       <c r="D62" t="n">
-        <v>1.072146189661202</v>
+        <v>0.5958255606999797</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5199499690627328</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7522648048798218</v>
+        <v>1.593839820713784</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.5970976717916907</v>
       </c>
       <c r="H62" t="n">
-        <v>0.04726559161037684</v>
+        <v>0.7936026756986023</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02715857541543444</v>
+        <v>-0.0484908178270951</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.4040985150536299</v>
+        <v>-0.006853920346531352</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.5170919659363848</v>
+        <v>-0.2735586937434318</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.05644232343019013</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4280400469153331</v>
+        <v>0.5997516740124818</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.6498403008785727</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6761388853537746</v>
+        <v>1.4956023917116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.6916324712631815</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2527735686708804</v>
+        <v>-1.002255755760987</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4537981866864582</v>
+        <v>0.4435334608195239</v>
       </c>
       <c r="D64" t="n">
-        <v>2.396511319325858</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E64" t="n">
-        <v>1.384538407802117</v>
+        <v>-0.6339952836751895</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8688589849426215</v>
+        <v>-0.5185974910264836</v>
       </c>
       <c r="G64" t="n">
-        <v>2.627270785933246</v>
+        <v>-0.3206240743200556</v>
       </c>
       <c r="H64" t="n">
-        <v>-1.782183990188599</v>
+        <v>-0.7086767165692122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.522073580554533</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.9397628242507626</v>
+        <v>0.4919759803354437</v>
       </c>
       <c r="C65" t="n">
-        <v>1.673287713126915</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D65" t="n">
-        <v>0.983855181016892</v>
+        <v>-0.01274341741040836</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6328346159231131</v>
+        <v>-2.189108465422868</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8688589849426215</v>
+        <v>0.9104042198566388</v>
       </c>
       <c r="G65" t="n">
-        <v>1.977999749001585</v>
+        <v>0.9979416528519938</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.6387780015642387</v>
+        <v>1.52368238035212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.138808638028169</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.197608530828415</v>
+        <v>0.2058464989552761</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.783416478219702</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.8702560005136264</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8081461153091942</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6874198532869241</v>
+        <v>-0.08368392684466372</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5417744199053537</v>
+        <v>1.124523962660511</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8762349333630384</v>
+        <v>-0.2453569040006337</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8329264084705986</v>
+        <v>-0.6843341097830231</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.2800225457936998</v>
+        <v>1.453386417027789</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.781964991869316</v>
+        <v>-0.4474355446321141</v>
       </c>
       <c r="E67" t="n">
-        <v>1.02429322499404</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F67" t="n">
-        <v>2.178853739923572</v>
+        <v>-0.02155341767583231</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.175156639096635</v>
       </c>
       <c r="H67" t="n">
-        <v>1.533693376822045</v>
+        <v>0.09160295968560485</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.294300670795035</v>
+        <v>-0.5889576159896339</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.5813498997106731</v>
+        <v>-0.7211401576645724</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.6936739832250056</v>
+        <v>-0.360497119187773</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.7769326890463438</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1038152889508445</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.6244854267064345</v>
+        <v>-1.11583655185675</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3865589530479563</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B69" t="n">
-        <v>0.510619275248533</v>
+        <v>0.01509351136849771</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.8046866443785472</v>
+        <v>2.322493316621662</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3658181205067191</v>
+        <v>-0.01274341741040836</v>
       </c>
       <c r="E69" t="n">
-        <v>2.609372029349578</v>
+        <v>-1.058117060515466</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H69" t="n">
-        <v>2.391247868290315</v>
+        <v>0.1477629369666444</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1.138808638028169</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.5529942643842838</v>
+        <v>0.2058464989552761</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4537981866864582</v>
+        <v>-1.090598556277352</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.5170919659363848</v>
+        <v>1.030517687921686</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3758518959395021</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.953694888482253</v>
+        <v>0.3302828631300244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.8337351198129442</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B71" t="n">
-        <v>1.638694241525763</v>
+        <v>-0.2074516408160771</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8792015098633614</v>
+        <v>-0.2742714279138768</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.4288009572920744</v>
+        <v>1.117456113366027</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2005403965534209</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F71" t="n">
-        <v>1.854628981959083</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G71" t="n">
-        <v>2.627270785933246</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H71" t="n">
-        <v>1.476523077390827</v>
+        <v>-0.4699968131247931</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9967059894784066</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9296185484372184</v>
+        <v>1.954415551834078</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9359219529536152</v>
+        <v>-0.8513302600328854</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8072731637282711</v>
+        <v>0.2480718589226151</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3446384696766516</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F72" t="n">
-        <v>1.400714320808799</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G72" t="n">
-        <v>2.627270785933246</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3759948133398809</v>
+        <v>-0.5401967847260929</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.229839244150622</v>
+        <v>1.572909576660521</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.4856341519958697</v>
+        <v>-0.8970727284325628</v>
       </c>
       <c r="D73" t="n">
-        <v>0.100945094573788</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E73" t="n">
-        <v>1.096342261555656</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.09071956582784869</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.6498403008785727</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.3958042289815623</v>
+        <v>0.1477629369666444</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.606853025908857</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9719935375729691</v>
+        <v>-1.51093038932573</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.9004023920933504</v>
+        <v>-0.6507671293573762</v>
       </c>
       <c r="D74" t="n">
-        <v>2.219929302037237</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2005403965534209</v>
+        <v>-1.340864911742316</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.6428585093641463</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.3944637550416903</v>
       </c>
       <c r="H74" t="n">
-        <v>-1.124725546729592</v>
+        <v>-0.6244367506476523</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-1.138808638028169</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.8430706842841429</v>
+        <v>-0.4935811221962447</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.73378609051573</v>
+        <v>-0.5557635411426615</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.781964991869316</v>
+        <v>-0.360497119187773</v>
       </c>
       <c r="E75" t="n">
-        <v>1.02429322499404</v>
+        <v>-0.7753692092886149</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2983501437295377</v>
+        <v>0.2269686189994933</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4193086950537785</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7618943345006018</v>
+        <v>-0.8069566768110317</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6916324712631815</v>
+        <v>1.274485946780398</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.5852249777064904</v>
+        <v>0.1104700051618869</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.7266960351294482</v>
+        <v>-0.7809572317256891</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.340509948647764</v>
+        <v>1.812963516920756</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3446384696766516</v>
+        <v>1.769361451753041</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H76" t="n">
-        <v>-1.110432971871787</v>
+        <v>-2.653215929925214</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3865589530479563</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.5852249777064904</v>
+        <v>-1.002255755760987</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.5281744843135601</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D77" t="n">
-        <v>2.83796636254741</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E77" t="n">
-        <v>2.609372029349578</v>
+        <v>-0.6339952836751895</v>
       </c>
       <c r="F77" t="n">
-        <v>1.076489562844311</v>
+        <v>-0.1458144360134951</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.1518476612420333</v>
       </c>
       <c r="H77" t="n">
-        <v>1.019160681941083</v>
+        <v>-1.003516597294671</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5207635510620772</v>
+        <v>-0.4617889575984483</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3758075774373596</v>
+        <v>0.9607752188774158</v>
       </c>
       <c r="D78" t="n">
-        <v>1.778474258815685</v>
+        <v>-0.1866202682990907</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3038028593778867</v>
+        <v>1.20386574929934</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.253358720449832</v>
+        <v>0.6391627381757427</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.223588083382494</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.8108399709619364</v>
+        <v>-0.1120751470226879</v>
       </c>
       <c r="C79" t="n">
-        <v>1.73709821160345</v>
+        <v>0.3414925697740898</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5424001377953399</v>
+        <v>-0.1866202682990907</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.065128835292805</v>
+        <v>0.9211178980724892</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8819547080656173</v>
+        <v>1.655970329882616</v>
       </c>
       <c r="G79" t="n">
-        <v>0.433787553056013</v>
+        <v>1.65195025352933</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.05326267244057</v>
+        <v>1.902762226999138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1339949911955984</v>
+        <v>-1.288385237141155</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1382907219969217</v>
+        <v>-0.601506009542339</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.9585470091579368</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3446384696766516</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6874198532869241</v>
+        <v>-0.1458144360134951</v>
       </c>
       <c r="G80" t="n">
-        <v>1.2220916810562</v>
+        <v>-0.3522696517721848</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.1814156061144948</v>
+        <v>-0.7929166824907715</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.08148543483273119</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3596099844510444</v>
+        <v>-1.06584008495658</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.9323076413316181</v>
+        <v>-0.6894722949263341</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2522189400034536</v>
+        <v>0.3350102843669562</v>
       </c>
       <c r="E81" t="n">
-        <v>1.528636480925348</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.5997516740124818</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H81" t="n">
-        <v>0.7904794842162112</v>
+        <v>-0.652516739288172</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9967059894784066</v>
+        <v>2.48960143020146</v>
       </c>
       <c r="B82" t="n">
-        <v>1.219694968337077</v>
+        <v>-0.0166986532292987</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2516623242485729</v>
+        <v>-0.6859536435109743</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2775271118624087</v>
+        <v>2.508470920475485</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3446384696766516</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.2079449451823265</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.2385859055457132</v>
+        <v>-0.8069566768110317</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.138808638028169</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5529942643842838</v>
+        <v>-0.5253732867940412</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1985561927803164</v>
+        <v>-0.9041100312632824</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.9585470091579368</v>
+        <v>1.117456113366027</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4887365427998823</v>
+        <v>1.345239674912765</v>
       </c>
       <c r="F83" t="n">
-        <v>1.076489562844311</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1169454678756245</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2187764899040312</v>
+        <v>-0.3717168528829731</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.487684950728274</v>
+        <v>-0.5253732867940412</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.2977476842594042</v>
+        <v>-0.9392965454168806</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01265408592947756</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4887365427998823</v>
+        <v>-0.9167431349020402</v>
       </c>
       <c r="F84" t="n">
-        <v>0.23350519213664</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2141336480400312</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.3386339295503445</v>
+        <v>-1.11583655185675</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4461578486041198</v>
+        <v>-1.097632249554376</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.6026200658695182</v>
+        <v>1.122633183983967</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.6053829745806952</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E85" t="n">
-        <v>1.672734554048579</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F85" t="n">
-        <v>1.66009412718039</v>
+        <v>0.1648381098306619</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7577481536040351</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H85" t="n">
-        <v>1.219256729950346</v>
+        <v>-0.4699968131247931</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.138808638028169</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.06953356455118526</v>
+        <v>-0.6207497805874304</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9607371468056013</v>
+        <v>-0.9639271053243992</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.8702560005136264</v>
+        <v>0.2480718589226151</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.4887365427998823</v>
+        <v>0.7797439724590639</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.1555645174207464</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1854177593025294</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4045799630554893</v>
+        <v>-0.2032369210398538</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.223588083382494</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B87" t="n">
-        <v>2.122154941358862</v>
+        <v>0.07867784056409051</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1630366319200515</v>
+        <v>-1.030781482216236</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2775271118624087</v>
+        <v>0.3350102843669562</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.05644232343019013</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1038152889508445</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G87" t="n">
-        <v>1.351675921275409</v>
+        <v>1.493722366268684</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6189685859225568</v>
+        <v>-0.9473566200136312</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9967059894784066</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9940799750816315</v>
+        <v>-0.2074516408160771</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.4147335981330524</v>
+        <v>-0.1159321142226855</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2775271118624087</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E88" t="n">
-        <v>1.240440334678886</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F88" t="n">
-        <v>1.530404223994595</v>
+        <v>0.1027076006618305</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H88" t="n">
-        <v>2.562758766583969</v>
+        <v>-0.2032369210398538</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.5286616015977191</v>
+        <v>2.793380301056725</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09162000205984758</v>
+        <v>1.000650613900186</v>
       </c>
       <c r="C89" t="n">
-        <v>1.49249130077673</v>
+        <v>2.53361240154325</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.2522189400034536</v>
+        <v>0.5088871352556386</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.2005403965534209</v>
+        <v>1.20386574929934</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4928849985082309</v>
+        <v>1.034665238194302</v>
       </c>
       <c r="G89" t="n">
-        <v>1.405669354700079</v>
+        <v>0.7025829299654547</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1187284658993993</v>
+        <v>1.172682522345621</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.3865589530479563</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.7141478309953166</v>
+        <v>-0.9068792619675979</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.8897673090139279</v>
+        <v>-0.1300067198841247</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.07563692271483284</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2317538228162713</v>
+        <v>-1.058117060515466</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4280400469153331</v>
+        <v>-0.580728000195315</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.4386819535549759</v>
+        <v>-1.36855644962143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.100916390861795</v>
+        <v>-1.097632249554376</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.02093333366014</v>
+        <v>-1.301717641198941</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.6936739832250056</v>
+        <v>-0.09968184285474951</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.9210307621695745</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2852544206065419</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2465297080948333</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H91" t="n">
-        <v>0.09014331618379094</v>
+        <v>-1.27027648937961</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.907532110928556</v>
+        <v>-1.351969566336747</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2765468020294154</v>
+        <v>0.4540894150656034</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.9585470091579368</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.7769326890463438</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2983501437295377</v>
+        <v>0.2890991281683247</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1854177593025294</v>
+        <v>-0.383915229224314</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.4815596781283895</v>
+        <v>-0.9613966143338913</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.9397628242507626</v>
+        <v>1.636493905856114</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.7692363674471386</v>
+        <v>-0.6894722949263341</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6640480421859635</v>
+        <v>0.9211178980724892</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.808061415711405</v>
+        <v>2.581539091185625</v>
       </c>
       <c r="H93" t="n">
-        <v>1.447937927675218</v>
+        <v>0.484722800652884</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.5286616015977191</v>
+        <v>2.793380301056725</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.519915664050481</v>
+        <v>0.9688584493023897</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.247815106021155</v>
+        <v>0.974849824538855</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.9585470091579368</v>
+        <v>0.8566408370330032</v>
       </c>
       <c r="E94" t="n">
-        <v>-2.578158603086728</v>
+        <v>1.345239674912765</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.4683034357633251</v>
       </c>
       <c r="H94" t="n">
-        <v>-2.67546991880138</v>
+        <v>-0.7648366938502518</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.301779507693632</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.0373028512289787</v>
+        <v>0.2058464989552761</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.9606678628767451</v>
+        <v>0.3344552669433701</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4541091291510295</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E95" t="n">
-        <v>-2.578158603086728</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.2890991281683247</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.230009220834274</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.2957562049769309</v>
+        <v>0.0214029880843051</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B96" t="n">
-        <v>0.05938928873764102</v>
+        <v>1.859039058040689</v>
       </c>
       <c r="C96" t="n">
-        <v>0.234006469711725</v>
+        <v>-0.4924278156661849</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.6053829745806952</v>
+        <v>0.1611334334782739</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.641521127785728</v>
+        <v>1.345239674912765</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7522648048798218</v>
+        <v>0.3512296373371561</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9737218873027165</v>
+        <v>0.175156639096635</v>
       </c>
       <c r="H96" t="n">
-        <v>1.433645352817414</v>
+        <v>0.5970427552149632</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B97" t="n">
-        <v>0.736234268503979</v>
+        <v>0.5555603095310365</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5424238790149798</v>
+        <v>0.70391366555615</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4288009572920744</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8081461153091942</v>
+        <v>-1.764986688582592</v>
       </c>
       <c r="F97" t="n">
-        <v>1.271024417623004</v>
+        <v>-0.08368392684466372</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.1013169583750002</v>
       </c>
       <c r="H97" t="n">
-        <v>1.319304753954977</v>
+        <v>-0.4980768017653129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.606853025908857</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.4885328377398707</v>
+        <v>-0.6843341097830231</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.2622974073279955</v>
+        <v>0.7461374825404676</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8072731637282711</v>
+        <v>-0.6213123955207964</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.353324981539267</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.3322059635199893</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.1834932386941625</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.124245306683277</v>
+        <v>-1.21411651209857</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.229839244150622</v>
+        <v>-0.8115027681742087</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6204144882640787</v>
+        <v>-0.5803941010501802</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.781964991869316</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.4166875062382669</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4928849985082309</v>
+        <v>0.4133601465059876</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09534809450575639</v>
+        <v>0.1435110616445058</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6761388853537746</v>
+        <v>0.1337229426463853</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1.138808638028169</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B100" t="n">
-        <v>1.799847808136796</v>
+        <v>0.587352474128833</v>
       </c>
       <c r="C100" t="n">
-        <v>2.19086175632548</v>
+        <v>0.9854057787849344</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.046838017802247</v>
+        <v>1.030517687921686</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.7769326890463438</v>
+        <v>1.627987526139616</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5577299501011287</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G100" t="n">
-        <v>2.627270785933246</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3617022384820762</v>
+        <v>0.06352297104508554</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9967059894784066</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.90668422391696</v>
+        <v>-0.4935811221962447</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.223302102703446</v>
+        <v>0.5314997462035191</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7189821550839607</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5199499690627328</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.034665238194302</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.7869711365044658</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07585074132598625</v>
+        <v>1.004202590502502</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B102" t="n">
-        <v>1.38084853494811</v>
+        <v>-1.224800907945562</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.400553487360489</v>
+        <v>0.15148539334466</v>
       </c>
       <c r="D102" t="n">
-        <v>1.513601232882754</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8081461153091942</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F102" t="n">
-        <v>1.465559272401697</v>
+        <v>0.1648381098306619</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08454940782082232</v>
+        <v>-0.2467843935984208</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1044358910415946</v>
+        <v>-0.006677000556214196</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.138808638028169</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.390992810761654</v>
+        <v>-0.4935811221962447</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.07086591189838906</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.046838017802247</v>
+        <v>0.07419500803393279</v>
       </c>
       <c r="E103" t="n">
-        <v>1.240440334678886</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5577299501011287</v>
+        <v>0.9104042198566388</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.3761139483140422</v>
+        <v>0.4810638878005504</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6904314602115793</v>
+        <v>-0.2453569040006337</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.827147098769758</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1560814287042607</v>
+        <v>-1.193008743347766</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4573432143795991</v>
+        <v>-0.5276143298197831</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8072731637282711</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E104" t="n">
-        <v>1.384538407802117</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F104" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H104" t="n">
-        <v>1.619448825968872</v>
+        <v>-2.653215929925214</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8006956951483921</v>
+        <v>0.6827289679222222</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.4430938196781793</v>
+        <v>-0.9287405911708011</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.340509948647764</v>
+        <v>1.204394538810368</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3758518959395021</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9467996596585151</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G105" t="n">
-        <v>1.286883801165804</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8762349333630384</v>
+        <v>1.790442272437059</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.08148543483273119</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B106" t="n">
-        <v>1.187464255014871</v>
+        <v>2.081584210225264</v>
       </c>
       <c r="C106" t="n">
-        <v>1.237249306870589</v>
+        <v>1.309121708998037</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1639279313591432</v>
+        <v>0.07419500803393279</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5199499690627328</v>
+        <v>-1.482238837355742</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.808061415711405</v>
+        <v>2.581539091185625</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1187284658993993</v>
+        <v>0.2320029028882043</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2951485578066312</v>
+        <v>-0.9704635911631907</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.7373311182088709</v>
+        <v>-0.02796582883869022</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.4288009572920744</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E107" t="n">
-        <v>1.096342261555656</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F107" t="n">
-        <v>1.400714320808799</v>
+        <v>0.7240126923501445</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9197284538780461</v>
+        <v>0.1540595874618822</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9048200830786468</v>
+        <v>0.1196829483261251</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6395421285373593</v>
+        <v>-0.3982046284028555</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8685664267839389</v>
+        <v>-0.8724421685250442</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.781964991869316</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.9210307621695745</v>
+        <v>-0.7753692092886149</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8819547080656173</v>
+        <v>0.4133601465059876</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5741704799601559</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.9532146484359381</v>
+        <v>-1.017556591614931</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.223588083382494</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B109" t="n">
-        <v>1.670924954847969</v>
+        <v>-0.8115027681742087</v>
       </c>
       <c r="C109" t="n">
-        <v>1.829268931625112</v>
+        <v>-0.7598453232335304</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1639279313591432</v>
+        <v>0.5958255606999797</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5199499690627328</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F109" t="n">
-        <v>1.206179466030106</v>
+        <v>1.158926256531964</v>
       </c>
       <c r="G109" t="n">
-        <v>1.189695621001398</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2473616396196396</v>
+        <v>0.7093627097770424</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.223588083382494</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.326531384117241</v>
+        <v>-1.606306883119119</v>
       </c>
       <c r="C110" t="n">
-        <v>2.64462530104751</v>
+        <v>-0.4607599529279466</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5170919659363848</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8081461153091942</v>
+        <v>-1.623612762969167</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6874198532869241</v>
+        <v>-0.1458144360134951</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.05215334776602011</v>
+        <v>0.02747727765336543</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3045319390508585</v>
+        <v>-1.663396330346889</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.9967059894784066</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3918406977732509</v>
+        <v>-0.7161262743808195</v>
       </c>
       <c r="C111" t="n">
-        <v>2.385838279448228</v>
+        <v>-0.8829981227711236</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8955641723725816</v>
+        <v>-0.09968184285474951</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6640480421859635</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6874198532869241</v>
+        <v>0.4133601465059876</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5475057116335343</v>
+        <v>-0.4559568188045329</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.08148543483273119</v>
+        <v>2.48960143020146</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7786092576397298</v>
+        <v>-0.9386714265653944</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.03896066266012129</v>
+        <v>1.660986850534018</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9585470091579368</v>
+        <v>0.9435792624773444</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.7769326890463438</v>
+        <v>-0.6339952836751895</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1686602405437422</v>
+        <v>-0.8292500368706406</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.947308976415869</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.553022552417412</v>
+        <v>-0.652516739288172</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B113" t="n">
-        <v>1.735386381492383</v>
+        <v>-0.8750870973698015</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.453728902757602</v>
+        <v>0.9994803844463737</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.9585470091579368</v>
+        <v>0.6827639861443209</v>
       </c>
       <c r="E113" t="n">
-        <v>1.240440334678886</v>
+        <v>-0.4926213580617642</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.2890991281683247</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.05912285510549461</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.310529019881051</v>
+        <v>0.1477629369666444</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.9967059894784066</v>
+        <v>2.48960143020146</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.5207635510620772</v>
+        <v>0.9370662847045934</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.5281744843135601</v>
+        <v>1.013554990107813</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.781964991869316</v>
+        <v>0.4219487098112974</v>
       </c>
       <c r="E114" t="n">
-        <v>-2.578158603086728</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F114" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.221056765700796</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.808061415711405</v>
+        <v>2.084439812041762</v>
       </c>
       <c r="H114" t="n">
-        <v>-2.67546991880138</v>
+        <v>1.34116245418874</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.301779507693632</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47754067491473</v>
+        <v>-1.383761730934544</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.024478361353281</v>
+        <v>-0.07018964582300795</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8955641723725816</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E115" t="n">
-        <v>2.537322992787963</v>
+        <v>1.20386574929934</v>
       </c>
       <c r="F115" t="n">
-        <v>1.66009412718039</v>
+        <v>0.5376211648436504</v>
       </c>
       <c r="G115" t="n">
-        <v>1.686435208508365</v>
+        <v>-0.3522696517721848</v>
       </c>
       <c r="H115" t="n">
-        <v>0.7904794842162112</v>
+        <v>0.6532027324960028</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.8337351198129442</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.2951485578066312</v>
+        <v>0.3965994865420545</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2623666912568519</v>
+        <v>0.02129529097634714</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.6936739832250056</v>
+        <v>2.89969383497502</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0876557496930406</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6225749016940264</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G116" t="n">
-        <v>1.092507440836991</v>
+        <v>-0.1412991354246569</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3331170887664668</v>
+        <v>-0.8911966427325916</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.8337351198129442</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B117" t="n">
-        <v>0.09162000205984758</v>
+        <v>0.8416897909112041</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2127363035528798</v>
+        <v>-1.069486647785194</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.046838017802247</v>
+        <v>-0.360497119187773</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.7769326890463438</v>
+        <v>-0.7753692092886149</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7522648048798218</v>
+        <v>0.4133601465059876</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.808061415711405</v>
+        <v>2.580220525458453</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5332131367757296</v>
+        <v>-0.1891969267195941</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.223588083382494</v>
+        <v>2.793380301056725</v>
       </c>
       <c r="B118" t="n">
-        <v>1.316387108303697</v>
+        <v>0.2376386635530725</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7019501252063186</v>
+        <v>0.404828295250566</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.781964991869316</v>
+        <v>0.9435792624773444</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.353324981539267</v>
+        <v>-2.542543279456432</v>
       </c>
       <c r="F118" t="n">
-        <v>1.141334514437208</v>
+        <v>0.5997516740124818</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7333091847849934</v>
+        <v>1.074402562103801</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.08148543483273119</v>
+        <v>1.578264817635663</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.3596099844510444</v>
+        <v>0.9688584493023897</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0603001127478227</v>
+        <v>1.544871353827144</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.01274341741040836</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.3446384696766516</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F119" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.8482737106878074</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.029587230304123</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.02419728267864566</v>
+        <v>0.2741228858489848</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.9719935375729691</v>
+        <v>2.176960704018653</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2517316081774293</v>
+        <v>-0.6190992666191379</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.9585470091579368</v>
+        <v>2.85622462225285</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.6328346159231131</v>
+        <v>1.486613600526191</v>
       </c>
       <c r="F120" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.6816557261376524</v>
+        <v>0.4566428120123637</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.911926544124082</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1984564178400115</v>
+        <v>-0.7161262743808195</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.134374219840647</v>
+        <v>-1.087079904861993</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.01274341741040836</v>
       </c>
       <c r="E121" t="n">
-        <v>-2.578158603086728</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F121" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.096795747363133</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4617502624867071</v>
+        <v>0.0775629653653447</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.8337351198129442</v>
+        <v>0.9707070759251319</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.5207635510620772</v>
+        <v>0.905274120106797</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.9464877521041817</v>
+        <v>0.8376224193398224</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.046838017802247</v>
+        <v>1.812963516920756</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.9210307621695745</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F122" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.5376211648436504</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.5549035685221851</v>
       </c>
       <c r="H122" t="n">
-        <v>-1.110432971871787</v>
+        <v>0.4145228290515843</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.68191711767311</v>
+        <v>0.7145211325200186</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7905758175348403</v>
+        <v>-0.1124134628073257</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.6936739832250056</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.05644232343019013</v>
+        <v>-0.9167431349020402</v>
       </c>
       <c r="F123" t="n">
-        <v>2.049163836737776</v>
+        <v>0.786143201518976</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.192536274670163</v>
+        <v>0.6498403008785727</v>
       </c>
       <c r="H123" t="n">
-        <v>1.204964155092541</v>
+        <v>-0.09091696647777409</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.606853025908857</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.06953356455118526</v>
+        <v>-0.6207497805874304</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.6770656474254761</v>
+        <v>0.8481783735859018</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6640480421859635</v>
+        <v>1.062491823685915</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9467996596585151</v>
+        <v>-0.2079449451823265</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.3333845263572809</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.4386819535549759</v>
+        <v>-0.413836835843753</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.004224250895176</v>
+        <v>-0.2392438054138735</v>
       </c>
       <c r="C125" t="n">
-        <v>2.64462530104751</v>
+        <v>-1.009669573724077</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.6936739832250056</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.6328346159231131</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.1555645174207464</v>
+        <v>0.8482737106878074</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.1709389013002949</v>
+        <v>2.232119173485032</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.9960923730093512</v>
+        <v>1.67812231787498</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B126" t="n">
-        <v>0.961849261759425</v>
+        <v>-0.3346202992072627</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.9748479736493085</v>
+        <v>-1.111710464769511</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9585470091579368</v>
+        <v>-0.8821276718538199</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.7769326890463438</v>
+        <v>-0.6339952836751895</v>
       </c>
       <c r="F126" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.4564669818576522</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.808061415711405</v>
+        <v>1.145621014295263</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.8531666244313062</v>
+        <v>-1.15795653481753</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.911926544124082</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.6496864043509035</v>
+        <v>-0.3028281346094663</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.003208195194435</v>
+        <v>-0.9041100312632824</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66138434525879</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3758518959395021</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F127" t="n">
-        <v>1.789784030366186</v>
+        <v>0.5997516740124818</v>
       </c>
       <c r="G127" t="n">
-        <v>1.135702187576727</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1187284658993993</v>
+        <v>-0.09091696647777409</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.911926544124082</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1984564178400115</v>
+        <v>-0.3664124638050591</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.6841557028117579</v>
+        <v>-1.182083493076707</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.2522189400034536</v>
+        <v>-0.5343739700764553</v>
       </c>
       <c r="E128" t="n">
-        <v>-2.578158603086728</v>
+        <v>0.3556221956187878</v>
       </c>
       <c r="F128" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.02155341767583231</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.2806418972703989</v>
       </c>
       <c r="H128" t="n">
-        <v>-2.67546991880138</v>
+        <v>-0.5401967847260929</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.217000062339307</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B129" t="n">
-        <v>1.090772115048251</v>
+        <v>0.8098976263134078</v>
       </c>
       <c r="C129" t="n">
-        <v>2.64462530104751</v>
+        <v>-0.8302183515407265</v>
       </c>
       <c r="D129" t="n">
-        <v>1.601892241527065</v>
+        <v>2.769286196808509</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3758518959395021</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4928849985082309</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G129" t="n">
-        <v>0.8117415870287055</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1758987653306171</v>
+        <v>0.203922914247685</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.217000062339307</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4461578486041198</v>
+        <v>0.01509351136849771</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4396180759138947</v>
+        <v>-0.7035469005877734</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6306911464396503</v>
+        <v>0.5958255606999797</v>
       </c>
       <c r="E130" t="n">
-        <v>-2.578158603086728</v>
+        <v>0.4969961212322132</v>
       </c>
       <c r="F130" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H130" t="n">
-        <v>2.641367928301894</v>
+        <v>-1.29835647802013</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B131" t="n">
-        <v>2.186616368003274</v>
+        <v>-1.097632249554376</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8012109006142628</v>
+        <v>-0.1863051425298815</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3658181205067191</v>
+        <v>-0.7951892464094787</v>
       </c>
       <c r="E131" t="n">
-        <v>2.609372029349578</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6874198532869241</v>
+        <v>0.8482737106878074</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.03802580347074182</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.5101448278439984</v>
+        <v>0.7514826927378229</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.301779507693632</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B132" t="n">
-        <v>1.993232088070035</v>
+        <v>2.208752868616449</v>
       </c>
       <c r="C132" t="n">
-        <v>0.772850679069136</v>
+        <v>-0.5452075868965821</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.07563692271483284</v>
+        <v>0.07419500803393279</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.4887365427998823</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F132" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.3322059635199893</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.5970976717916907</v>
       </c>
       <c r="H132" t="n">
-        <v>-1.253358720449832</v>
+        <v>-0.1891969267195941</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.522073580554533</v>
+        <v>2.185822559346194</v>
       </c>
       <c r="B133" t="n">
-        <v>0.961849261759425</v>
+        <v>0.4601838157376473</v>
       </c>
       <c r="C133" t="n">
-        <v>1.021002617588996</v>
+        <v>-0.6824349920956145</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4541091291510295</v>
+        <v>0.769702411588662</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.05644232343019013</v>
+        <v>0.9211178980724892</v>
       </c>
       <c r="F133" t="n">
-        <v>1.271024417623004</v>
+        <v>0.9104042198566388</v>
       </c>
       <c r="G133" t="n">
-        <v>2.118382675905728</v>
+        <v>0.5970976717916907</v>
       </c>
       <c r="H133" t="n">
-        <v>1.390767628244</v>
+        <v>-0.5542367790463525</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-0.8337351198129442</v>
+        <v>1.274485946780398</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3918406977732509</v>
+        <v>-1.51093038932573</v>
       </c>
       <c r="C134" t="n">
-        <v>1.747733294682872</v>
+        <v>0.8833648877394999</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.046838017802247</v>
+        <v>0.5088871352556386</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.7769326890463438</v>
+        <v>-0.06849958122148818</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.8040140333497238</v>
+        <v>1.221056765700796</v>
       </c>
       <c r="G134" t="n">
-        <v>1.157299560946596</v>
+        <v>-0.2573329194157972</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.9532146484359381</v>
+        <v>0.4285628233718434</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.217000062339307</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4783885619263264</v>
+        <v>0.1104700051618869</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.6877007305048988</v>
+        <v>1.787658301486971</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8072731637282711</v>
+        <v>-0.4474355446321141</v>
       </c>
       <c r="E135" t="n">
-        <v>0.952244188432425</v>
+        <v>-1.482238837355742</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9467996596585151</v>
+        <v>1.221056765700796</v>
       </c>
       <c r="G135" t="n">
-        <v>0.595767853330024</v>
+        <v>0.9873931270346173</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.5387299775596073</v>
+        <v>0.1477629369666444</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B136" t="n">
-        <v>1.928770661425622</v>
+        <v>0.1422621697596833</v>
       </c>
       <c r="C136" t="n">
-        <v>2.64462530104751</v>
+        <v>0.2148211188211366</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.9585470091579368</v>
+        <v>-1.056004522742502</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5199499690627328</v>
+        <v>1.062491823685915</v>
       </c>
       <c r="F136" t="n">
-        <v>1.400714320808799</v>
+        <v>0.4133601465059876</v>
       </c>
       <c r="G136" t="n">
-        <v>2.355953782974277</v>
+        <v>0.4916124136179268</v>
       </c>
       <c r="H136" t="n">
-        <v>1.133501280803519</v>
+        <v>-0.6805967279286923</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.223588083382494</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.6174556910286969</v>
+        <v>-1.06584008495658</v>
       </c>
       <c r="C137" t="n">
-        <v>-1.180459579851479</v>
+        <v>-0.3939055760361102</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.07563692271483284</v>
+        <v>-0.2735586937434318</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2317538228162713</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F137" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.0405770914929991</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.5315945906675835</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.3672190792659534</v>
+        <v>-1.101796557536491</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.301779507693632</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.0373028512289787</v>
+        <v>-0.8115027681742087</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.6912457581980397</v>
+        <v>1.724322576010494</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.9585470091579368</v>
+        <v>0.5088871352556386</v>
       </c>
       <c r="E138" t="n">
-        <v>1.096342261555656</v>
+        <v>-1.058117060515466</v>
       </c>
       <c r="F138" t="n">
-        <v>-1.322773646092906</v>
+        <v>0.8482737106878074</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.4388697845310448</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.5244374027018032</v>
+        <v>-1.059676574575711</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.827147098769758</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B139" t="n">
-        <v>1.187464255014871</v>
+        <v>-2.683266458869472</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.6983358135843214</v>
+        <v>0.9607752188774158</v>
       </c>
       <c r="D139" t="n">
-        <v>0.983855181016892</v>
+        <v>0.6827639861443209</v>
       </c>
       <c r="E139" t="n">
-        <v>2.609372029349578</v>
+        <v>-0.2098735068349135</v>
       </c>
       <c r="F139" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.283187274869627</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H139" t="n">
-        <v>1.462230502533022</v>
+        <v>0.9480426132214619</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9967059894784066</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9296185484372184</v>
+        <v>0.6509368033244257</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8437512329319529</v>
+        <v>0.6722458028179116</v>
       </c>
       <c r="D140" t="n">
-        <v>1.866765267459996</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5199499690627328</v>
+        <v>1.062491823685915</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5577299501011287</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5525731065902878</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H140" t="n">
-        <v>0.4474576876289034</v>
+        <v>1.650042329234459</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.5286616015977191</v>
+        <v>1.882043688490928</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.71329994398372</v>
+        <v>0.2376386635530725</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.6983358135843214</v>
+        <v>-0.04555908591548927</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.8702560005136264</v>
+        <v>0.4219487098112974</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.6328346159231131</v>
+        <v>-0.6339952836751895</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.4797892753852351</v>
+        <v>0.9725347290254702</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.6460811154373939</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H141" t="n">
-        <v>-1.710721115899576</v>
+        <v>1.256922488267181</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.2951485578066312</v>
+        <v>0.3648073219442581</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.5210844289272784</v>
+        <v>-0.7739199288949695</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.781964991869316</v>
+        <v>1.030517687921686</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.3446384696766516</v>
+        <v>2.193483228593317</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1038152889508445</v>
+        <v>0.475490655674819</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.7025829299654547</v>
       </c>
       <c r="H142" t="n">
-        <v>-1.010384947867156</v>
+        <v>0.0775629653653447</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.5286616015977191</v>
+        <v>0.3631493342146008</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.004224250895176</v>
+        <v>-0.3982046284028555</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.9323076413316181</v>
+        <v>0.2113024674057767</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.6936739832250056</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.7769326890463438</v>
+        <v>-0.6339952836751895</v>
       </c>
       <c r="F143" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.283187274869627</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.5865491459743143</v>
       </c>
       <c r="H143" t="n">
-        <v>-1.224773570734223</v>
+        <v>0.4987627949731431</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5750807018929461</v>
+        <v>-0.8432949327720052</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.017388305966999</v>
+        <v>-0.4220547873589887</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3038028593778867</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F144" t="n">
-        <v>-1.322773646092906</v>
+        <v>-0.4564669818576522</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.3733667034069376</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.9246294987203287</v>
+        <v>-1.775716284908968</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-0.8519661492064613</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5750807018929461</v>
+        <v>-0.1438673116204843</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2907269128019788</v>
+        <v>-0.1792678396991619</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.046838017802247</v>
+        <v>0.5958255606999797</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.6328346159231131</v>
+        <v>1.20386574929934</v>
       </c>
       <c r="F145" t="n">
-        <v>1.335869369215901</v>
+        <v>0.2269686189994933</v>
       </c>
       <c r="G145" t="n">
-        <v>2.627270785933246</v>
+        <v>0.7553255590523367</v>
       </c>
       <c r="H145" t="n">
-        <v>1.233549304808151</v>
+        <v>0.3162428688097642</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-1.138808638028169</v>
+        <v>2.185822559346194</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.907532110928556</v>
+        <v>-0.0484908178270951</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.6770656474254761</v>
+        <v>1.164857000968285</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.6936739832250056</v>
+        <v>1.291332964254709</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.7769326890463438</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F146" t="n">
-        <v>-1.322773646092906</v>
+        <v>1.034665238194302</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.808061415711405</v>
+        <v>0.8080681881392187</v>
       </c>
       <c r="H146" t="n">
-        <v>0.4617502624867071</v>
+        <v>1.41136242579004</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.301779507693632</v>
+        <v>0.05937046335933531</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.197608530828415</v>
+        <v>0.7145211325200186</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0106697250438508</v>
+        <v>0.3520485240201692</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5424001377953399</v>
+        <v>0.3350102843669562</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2317538228162713</v>
+        <v>0.7797439724590639</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6874198532869241</v>
+        <v>0.7240126923501445</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8905275082208421</v>
+        <v>0.8778426416201621</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.3865589530479563</v>
+        <v>2.185822559346194</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.165377817506209</v>
+        <v>-0.3346202992072627</v>
       </c>
       <c r="C148" t="n">
-        <v>2.64462530104751</v>
+        <v>1.657468199118658</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.07563692271483284</v>
+        <v>1.030517687921686</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2317538228162713</v>
+        <v>0.9211178980724892</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1038152889508445</v>
+        <v>1.221056765700796</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.4386819535549759</v>
+        <v>2.043162170201737</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.8337351198129442</v>
+        <v>-1.155745020061727</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.552146377372687</v>
+        <v>-0.0484908178270951</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.7302410628225892</v>
+        <v>-0.5944687067116194</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.046838017802247</v>
+        <v>-0.6213123955207964</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.497423054662497</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.6743241301639283</v>
+        <v>-0.1458144360134951</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.1096535579725277</v>
       </c>
       <c r="H149" t="n">
-        <v>-1.296236445023246</v>
+        <v>-0.2453569040006337</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.08148543483273119</v>
+        <v>-0.2444084074959302</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.2951485578066312</v>
+        <v>0.8416897909112041</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.7727813951402795</v>
+        <v>-0.6965095977570538</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4541091291510295</v>
+        <v>-0.9690660972981611</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5199499690627328</v>
+        <v>-0.3512474324483388</v>
       </c>
       <c r="F150" t="n">
-        <v>1.271024417623004</v>
+        <v>0.2890991281683247</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H150" t="n">
-        <v>1.047745831656692</v>
+        <v>0.03544298240456525</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.606853025908857</v>
+        <v>0.6669282050698664</v>
       </c>
       <c r="B151" t="n">
-        <v>1.413079248270317</v>
+        <v>1.413948753671539</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.5388095673929827</v>
+        <v>-0.5276143298197831</v>
       </c>
       <c r="D151" t="n">
-        <v>1.425310224238444</v>
+        <v>2.85622462225285</v>
       </c>
       <c r="E151" t="n">
-        <v>1.240440334678886</v>
+        <v>0.2142482700053625</v>
       </c>
       <c r="F151" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.2385859055457132</v>
+        <v>-0.7929166824907715</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.8337351198129442</v>
+        <v>1.882043688490928</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.423223524083861</v>
+        <v>-1.479138224727933</v>
       </c>
       <c r="C152" t="n">
-        <v>2.64462530104751</v>
+        <v>-0.6718790378495351</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.781964991869316</v>
+        <v>0.4219487098112974</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.065128835292805</v>
+        <v>0.7797439724590639</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6225749016940264</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.2033349613550971</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1758987653306171</v>
+        <v>0.1477629369666444</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.301779507693632</v>
+        <v>1.274485946780398</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.8430706842841429</v>
+        <v>0.3648073219442581</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1099305004517948</v>
+        <v>-0.6472484779420165</v>
       </c>
       <c r="D153" t="n">
-        <v>2.131638293392927</v>
+        <v>0.5088871352556386</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0876557496930406</v>
+        <v>0.07287434439193717</v>
       </c>
       <c r="F153" t="n">
-        <v>-1.322773646092906</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.808061415711405</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6761388853537746</v>
+        <v>0.09160295968560485</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.5286616015977191</v>
+        <v>-0.5481872783511957</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8006956951483921</v>
+        <v>1.064234943095779</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.4147335981330524</v>
+        <v>-0.7528080204028107</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.340509948647764</v>
+        <v>-0.7082508209651376</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.05644232343019013</v>
+        <v>-1.340864911742316</v>
       </c>
       <c r="F154" t="n">
-        <v>1.141334514437208</v>
+        <v>0.4133601465059876</v>
       </c>
       <c r="G154" t="n">
-        <v>2.627270785933246</v>
+        <v>2.581539091185625</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.5816077021330209</v>
+        <v>0.9059226302606824</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.301779507693632</v>
+        <v>1.882043688490928</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.519915664050481</v>
+        <v>0.5555603095310365</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8898365929427841</v>
+        <v>2.625097338342605</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5424001377953399</v>
+        <v>2.073778793253779</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.05644232343019013</v>
+        <v>0.6383700468456386</v>
       </c>
       <c r="F155" t="n">
-        <v>1.271024417623004</v>
+        <v>-1.26416360105246</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.2789257681496355</v>
+        <v>-0.7742106844672405</v>
       </c>
       <c r="H155" t="n">
-        <v>0.4617502624867071</v>
+        <v>-0.7227167108894718</v>
       </c>
     </row>
   </sheetData>
